--- a/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>DISA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,36 +665,38 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
+      <c r="F7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44286</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -708,8 +710,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +742,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +774,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +822,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,22 +961,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -963,22 +991,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,22 +1039,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,22 +1133,25 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>4200</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="F23" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1121,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1197,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,22 +1229,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E26" s="3">
         <v>4200</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="F26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1208,22 +1261,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>4200</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="F27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1237,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,22 +1421,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1382,22 +1453,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>4200</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="F33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,22 +1517,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>4200</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="F35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1469,27 +1549,30 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
+      <c r="F38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44286</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
@@ -1503,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,22 +1616,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1558,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,8 +1678,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1710,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,22 +1742,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1674,22 +1774,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+      <c r="F46" s="3">
+        <v>900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1703,22 +1806,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>275000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>275000</v>
+      </c>
+      <c r="F47" s="3">
+        <v>275000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>250000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1732,8 +1838,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1870,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,19 +1966,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1877,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,22 +2030,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>275700</v>
+      </c>
+      <c r="E54" s="3">
         <v>276000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+      <c r="F54" s="3">
+        <v>276200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>252200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1935,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,22 +2092,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1990,80 +2122,89 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2077,8 +2218,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,22 +2250,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18800</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>23200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>25700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,22 +2378,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="F66" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>26600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,13 +2488,16 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>275000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2351,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,22 +2552,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17900</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="F72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,22 +2680,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>253500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>257100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>252900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>225700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,27 +2744,30 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
+      <c r="F80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44286</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
@@ -2588,22 +2781,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>4200</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="F81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,37 +3019,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3161,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2945,25 +3176,28 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-25000</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-250000</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,8 +3335,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3103,25 +3350,28 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>251400</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,33 +3399,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>DISA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,45 +665,47 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,8 +715,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,8 +753,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,8 +791,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +829,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +849,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,8 +883,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +921,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +959,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +997,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,28 +1014,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -994,8 +1048,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,19 +1063,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1086,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,8 +1106,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,20 +1117,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G20" s="3">
         <v>4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1140,14 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1104,8 +1178,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,29 +1216,35 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,8 +1254,14 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,8 +1292,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,29 +1330,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,29 +1368,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1406,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1444,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1482,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1520,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1558,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1433,20 +1573,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,29 +1596,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1634,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,29 +1672,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,34 +1710,40 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1753,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1773,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,29 +1789,31 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,8 +1823,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,8 +1861,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1713,8 +1899,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,13 +1937,19 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -1760,14 +1958,14 @@
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,29 +1975,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,13 +2013,19 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>275000</v>
+        <v>275400</v>
       </c>
       <c r="E47" s="3">
         <v>275000</v>
@@ -1824,14 +2034,14 @@
         <v>275000</v>
       </c>
       <c r="G47" s="3">
+        <v>275000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>275000</v>
+      </c>
+      <c r="I47" s="3">
         <v>250000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1841,8 +2051,14 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1873,8 +2089,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +2127,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2165,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,26 +2203,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2241,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,29 +2279,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>275800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>275500</v>
+      </c>
+      <c r="F54" s="3">
         <v>275700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>276000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>276200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>252200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2317,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2337,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,29 +2353,31 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,19 +2387,25 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2151,26 +2419,32 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,35 +2457,41 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2501,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,29 +2539,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F62" s="3">
         <v>21000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>18800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>23200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>25700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,8 +2577,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2615,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2653,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,29 +2691,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F66" s="3">
         <v>22300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>26600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2729,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2749,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2783,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2821,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2859,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,29 +2897,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-21500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2935,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2973,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +3011,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,29 +3049,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>263500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>260900</v>
+      </c>
+      <c r="F76" s="3">
         <v>253500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>257100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>252900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>225700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2715,8 +3087,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,34 +3125,40 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,29 +3168,35 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +3206,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3226,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2862,8 +3260,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3298,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3336,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3374,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3412,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,40 +3450,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3508,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3100,8 +3542,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3580,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,8 +3618,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3176,28 +3636,34 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-25000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-250000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3676,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3710,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3748,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3786,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,40 +3824,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>25000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>251400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,36 +3900,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>DISA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,8 +1042,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1025,22 +1052,22 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,22 +1093,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,23 +1151,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,32 +1262,35 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,32 +1385,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,32 +1426,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,23 +1643,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,32 +1672,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,32 +1754,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,8 +1877,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1803,20 +1890,20 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1957,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,16 +2039,19 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
@@ -1964,11 +2063,11 @@
         <v>400</v>
       </c>
       <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,32 +2080,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,16 +2121,19 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>276700</v>
+      </c>
+      <c r="E47" s="3">
         <v>275400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>275000</v>
       </c>
       <c r="F47" s="3">
         <v>275000</v>
@@ -2040,11 +2145,11 @@
         <v>275000</v>
       </c>
       <c r="I47" s="3">
+        <v>275000</v>
+      </c>
+      <c r="J47" s="3">
         <v>250000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,8 +2162,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2221,17 +2341,17 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>276900</v>
+      </c>
+      <c r="E54" s="3">
         <v>275800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>275500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>275700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>276000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>252200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,32 +2485,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,22 +2524,25 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2425,14 +2559,17 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,11 +2580,11 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2463,38 +2600,41 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,32 +2688,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E62" s="3">
         <v>10500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,8 +2852,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2706,23 +2864,23 @@
         <v>12200</v>
       </c>
       <c r="E66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F66" s="3">
         <v>14600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,32 +3074,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-21500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,32 +3238,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>264700</v>
+      </c>
+      <c r="E76" s="3">
         <v>263500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>260900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>253500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>257100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>252900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>225700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,32 +3366,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,31 +3670,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3488,14 +3705,17 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3851,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3642,28 +3872,31 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-25000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-250000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,17 +4073,20 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3848,28 +4094,31 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>25000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>251400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,8 +4155,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3915,33 +4167,36 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>DISA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +725,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +769,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,34 +1068,35 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1084,8 +1110,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,22 +1125,22 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,26 +1184,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1216,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1224,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,35 +1304,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1348,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1436,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1480,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,26 +1712,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1744,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1832,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,8 +1963,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1893,20 +1979,20 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,8 +2049,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2093,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,19 +2137,22 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
@@ -2066,11 +2164,11 @@
         <v>400</v>
       </c>
       <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,35 +2181,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,19 +2225,22 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E47" s="3">
         <v>276700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>275400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>275000</v>
       </c>
       <c r="G47" s="3">
         <v>275000</v>
@@ -2148,11 +2252,11 @@
         <v>275000</v>
       </c>
       <c r="J47" s="3">
+        <v>275000</v>
+      </c>
+      <c r="K47" s="3">
         <v>250000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,8 +2269,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2206,8 +2313,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2445,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2344,17 +2463,17 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>279100</v>
+      </c>
+      <c r="E54" s="3">
         <v>276900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>275800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>275500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>275700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>276200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>252200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,35 +2615,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,25 +2657,28 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2562,19 +2695,22 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2583,11 +2719,11 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2603,41 +2739,44 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,13 +2789,16 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2691,35 +2833,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E62" s="3">
         <v>10300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="E66" s="3">
         <v>12200</v>
       </c>
       <c r="F66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G66" s="3">
         <v>14600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,35 +3247,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3423,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E76" s="3">
         <v>264700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>263500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>260900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>253500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>257100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>252900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>225700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3560,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,34 +3886,37 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3708,14 +3924,17 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,8 +4080,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3875,28 +4104,31 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-25000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-250000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,20 +4318,23 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4097,28 +4342,31 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>25000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>251400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,8 +4406,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4170,33 +4421,36 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DISA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>DISA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,62 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,8 +730,14 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +780,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +830,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +880,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +904,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +950,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +1000,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1050,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1100,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,40 +1121,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1113,8 +1167,14 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,31 +1182,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1217,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1241,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,32 +1252,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,8 +1287,14 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1263,8 +1337,14 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,41 +1387,47 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1437,14 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1395,8 +1487,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,41 +1537,47 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,41 +1587,47 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1637,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1837,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,32 +1852,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,41 +1887,47 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1937,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,41 +1987,47 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,46 +2037,52 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2092,14 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,8 +2136,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1982,23 +2156,23 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2182,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,8 +2232,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2096,8 +2282,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,25 +2332,31 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
@@ -2167,14 +2365,14 @@
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,41 +2382,47 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,25 +2432,31 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F47" s="3">
         <v>279000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>276700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>275400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>275000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>275000</v>
       </c>
       <c r="I47" s="3">
         <v>275000</v>
@@ -2255,14 +2465,14 @@
         <v>275000</v>
       </c>
       <c r="K47" s="3">
+        <v>275000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>275000</v>
+      </c>
+      <c r="M47" s="3">
         <v>250000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,8 +2482,14 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2316,8 +2532,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2582,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,16 +2682,22 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2466,20 +2706,20 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2732,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,41 +2782,47 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F54" s="3">
         <v>279100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>276900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>275800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>275500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>275700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>276000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>276200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>252200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,41 +2876,43 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,32 +2922,38 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,38 +2966,44 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2742,47 +3016,53 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,20 +3072,26 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2836,41 +3122,47 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F62" s="3">
         <v>9800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>10500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>13100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>21000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>18800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>23200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>25700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3172,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,41 +3322,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F66" s="3">
         <v>12100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>23400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,41 +3592,47 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11900</v>
+        <v>-14000</v>
       </c>
       <c r="E72" s="3">
-        <v>-12000</v>
+        <v>-13900</v>
       </c>
       <c r="F72" s="3">
         <v>-11900</v>
       </c>
       <c r="G72" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-14100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-17900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,41 +3792,47 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F76" s="3">
         <v>267000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>264700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>263500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>260900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>253500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>257100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>252900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>225700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,46 +3892,52 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,41 +3947,47 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3997,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +4021,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3669,8 +4067,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,52 +4317,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4391,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3995,8 +4437,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,8 +4537,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4092,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>263100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4107,28 +4567,34 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-25000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-250000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,52 +4807,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-262700</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>25000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>251400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,8 +4907,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4424,33 +4928,39 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>
